--- a/02 CLanguage/018 多维数组指针 函数指针.xlsx
+++ b/02 CLanguage/018 多维数组指针 函数指针.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\02 CLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E5CAD9-6ED5-480A-8CED-BA212ED3E298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C74C6F5-E632-4751-B276-CFDD1A976477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1083,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,6 +1151,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1840,7 +1843,7 @@
   </sheetPr>
   <dimension ref="B3:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A66" zoomScale="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A56" zoomScale="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2217,10 +2220,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:E91"/>
+  <dimension ref="B4:F91"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2231,17 +2234,20 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>81</v>
       </c>
     </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+    </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2260,83 +2266,126 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="43" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="9" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="9"/>
+    </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+      <c r="C50" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2503,7 +2552,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2512,9 +2561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D2E256-9EF3-4366-A14D-4B71D4295ED4}">
   <dimension ref="B2:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
